--- a/数据整理/stocks/A股/上证主板/603883-老百姓.xlsx
+++ b/数据整理/stocks/A股/上证主板/603883-老百姓.xlsx
@@ -451,575 +451,775 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5537</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7294</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6066</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2522</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1309</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9978</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>008370</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>国泰研究精选两年持有期混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>92.10</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>8.31</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9964</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009804</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰研究优势混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>8.80</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000336</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>农银研究精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>27.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9875</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6802</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005726</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6063</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005303</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5858</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>42.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3048</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>580001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东吴嘉禾优势精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2043</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000727</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>融通健康产业灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005304</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>94.74</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>5.15</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009274</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>融通健康产业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>94.74</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000336</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>农银研究精选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>83.67</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009805</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国泰医药健康股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>93.09</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>9.03</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009898</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>民生加银医药健康股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>42.92</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011324</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>011326</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国泰医药健康股票C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>93.09</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>9.03</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001128</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>宝盈新兴产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>93.55</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>580001</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>东吴嘉禾优势精选混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>90.66</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001861</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>富安达健康人生灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>89.90</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>5.47</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001645</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>国泰大健康股票A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>8.97</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>011321</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>国泰大健康股票C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>8.97</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005303</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>嘉实医药健康股票A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>89.28</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005304</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>嘉实医药健康股票C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>89.28</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>005726</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>国泰价值精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>94.10</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>7.15</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>011324</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>国泰价值精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>94.10</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>7.15</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>020001</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>国泰金鹰增长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>92.50</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>8.76</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>160215</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>国泰价值经典灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>8.76</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1029,7 +1229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1050,15 +1250,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000884</t>
+          <t>110023</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>民生加银优选股票</t>
+          <t>易方达医疗保健行业混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>81.23</t>
+          <t>43.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0669</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003626</t>
+          <t>009805</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>平安鑫利灵活配置混合A</t>
+          <t>国泰医药健康股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>25.36</t>
+          <t>19.56</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8641</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006433</t>
+          <t>001645</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>平安鑫利灵活配置混合C</t>
+          <t>国泰大健康股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25.36</t>
+          <t>16.83</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5484</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004683</t>
+          <t>020001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>建信高端医疗股票</t>
+          <t>国泰金鹰增长灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>86.12</t>
+          <t>15.36</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4162</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>501007</t>
+          <t>008370</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+          <t>国泰研究精选两年持有期混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>12.87</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2059</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>501008</t>
+          <t>000336</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+          <t>农银研究精选混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>30.43</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1046</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>020001</t>
+          <t>000727</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国泰金鹰增长灵活配置混合</t>
+          <t>融通健康产业灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.18</t>
+          <t>14.82</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>9.22</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0374</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>160215</t>
+          <t>009804</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国泰价值经典灵活配置混合（LOF）</t>
+          <t>国泰研究优势混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>9.86</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>9.31</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9495</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009804</t>
+          <t>160215</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国泰研究优势混合</t>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>9.63</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8035</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1322,25 +1622,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009805</t>
+          <t>005726</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国泰医药健康股票A</t>
+          <t>国泰价值精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.21</t>
+          <t>7.32</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>9.53</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5256</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>011326</t>
+          <t>009898</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国泰医药健康股票C</t>
+          <t>民生加银医药健康股票</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.21</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>9.53</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
+          <t>80.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3052</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1378,25 +1698,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>000336</t>
+          <t>010314</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>农银研究精选混合</t>
+          <t>摩根士丹利华鑫内需增长混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>92.90</t>
+          <t>8.76</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>62.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2961</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009898</t>
+          <t>000780</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>民生加银医药健康股票</t>
+          <t>鹏华医疗保健股票</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>80.65</t>
+          <t>10.41</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>4</v>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2779</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>233008</t>
+          <t>002547</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>大摩消费领航混合基金</t>
+          <t>民生加银养老服务灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>79.09</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
+          <t>76.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1286</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>010054</t>
+          <t>004683</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>万家健康产业混合A</t>
+          <t>建信高端医疗股票</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>82.78</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0993</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010055</t>
+          <t>700001</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>万家健康产业混合C</t>
+          <t>平安行业先锋混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>82.78</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>000727</t>
+          <t>000884</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>融通健康产业灵活配置混合A</t>
+          <t>民生加银优选股票</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
+          <t>81.23</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>009274</t>
+          <t>010054</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>融通健康产业灵活配置混合C</t>
+          <t>万家健康产业混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>5</v>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -1584,15 +1974,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>81.07</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>2.90</t>
         </is>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>006512</t>
+          <t>233008</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>博道卓远混合C</t>
+          <t>大摩消费领航混合基金</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>81.07</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>10</v>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>000780</t>
+          <t>001861</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>鹏华医疗保健股票</t>
+          <t>富安达健康人生灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>88.52</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>10</v>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1658,25 +2078,35 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>010314</t>
+          <t>007825</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫内需增长混合</t>
+          <t>博道志远混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>62.68</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>110023</t>
+          <t>009274</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>易方达医疗保健行业混合</t>
+          <t>融通健康产业灵活配置混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>92.75</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>6</v>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>001645</t>
+          <t>003626</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>国泰大健康股票A</t>
+          <t>平安鑫利灵活配置混合A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>9.20</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>2</v>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>011321</t>
+          <t>501007</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>国泰大健康股票C</t>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>9.20</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>2</v>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>001861</t>
+          <t>006433</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>富安达健康人生灵活配置混合</t>
+          <t>平安鑫利灵活配置混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>85.57</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>6.37</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>5</v>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>700001</t>
+          <t>007826</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>平安行业先锋混合</t>
+          <t>博道志远混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>91.91</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>4</v>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>700004</t>
+          <t>007965</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>平安灵活配置混合</t>
+          <t>民生加银品质消费股票A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>76.13</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>4</v>
+          <t>82.85</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>002547</t>
+          <t>011326</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>民生加银养老服务灵活配置混合</t>
+          <t>国泰医药健康股票C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>76.95</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>10</v>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>005726</t>
+          <t>700004</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>国泰价值精选灵活配置混合A</t>
+          <t>平安灵活配置混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>7.18</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>2</v>
+          <t>76.13</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>011324</t>
+          <t>007966</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>国泰价值精选灵活配置混合C</t>
+          <t>民生加银品质消费股票C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>7.18</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>2</v>
+          <t>82.85</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>007825</t>
+          <t>501008</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>博道志远混合A</t>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>82.09</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>10</v>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="34">
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>007826</t>
+          <t>011321</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>博道志远混合C</t>
+          <t>国泰大健康股票C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>82.09</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>10</v>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -1994,26 +2534,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>007965</t>
+          <t>010055</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>民生加银品质消费股票A</t>
+          <t>万家健康产业混合C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>82.85</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>9</v>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -2022,26 +2572,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>007966</t>
+          <t>006512</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>民生加银品质消费股票C</t>
+          <t>博道卓远混合C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>82.85</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>9</v>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -2050,25 +2610,35 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>008370</t>
+          <t>011324</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>国泰研究精选两年持有期混合</t>
+          <t>国泰价值精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>9.37</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
         <v>2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603883-老百姓.xlsx
+++ b/数据整理/stocks/A股/上证主板/603883-老百姓.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2645,4 +2646,668 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6092</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6021</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4237</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2477</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1556</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7293</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6414</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005726</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4254</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011288</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>70.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007137</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007138</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011289</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>70.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011324</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603883-老百姓.xlsx
+++ b/数据整理/stocks/A股/上证主板/603883-老百姓.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3310,4 +3311,630 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4330</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3611</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1674</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9558</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5123</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4215</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>33.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1401</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1073</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010589</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏扬景安一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>33.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010590</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏扬景安一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603883-老百姓.xlsx
+++ b/数据整理/stocks/A股/上证主板/603883-老百姓.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3937,4 +3938,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>36</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603883-老百姓.xlsx
+++ b/数据整理/stocks/A股/上证主板/603883-老百姓.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3946,7 +3947,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3957,17 +3958,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3977,14 +3998,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.23</v>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8933</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -3993,14 +4036,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.09</v>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2232</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -4009,14 +4074,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>36</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14.37</v>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2131</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -4025,13 +4112,835 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2020</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1701</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000960</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商医药健康产业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>34.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0997</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007726</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商瑞文混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>98.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6490</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4652</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4124</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>020026</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰成长优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3767</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011190</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商瑞安1年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>33.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2280</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>217024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商安盈债券</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>24.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1889</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007725</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商瑞文混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>26.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1760</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011191</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商瑞安1年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>21.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005274</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银景福回报混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007085</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商瑞庆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>21.54</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002574</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商瑞庆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>21.54</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>36</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>19</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>13.81</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603883-老百姓.xlsx
+++ b/数据整理/stocks/A股/上证主板/603883-老百姓.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4839,7 +4840,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4850,17 +4851,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4870,14 +4891,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.74</v>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4098</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -4886,14 +4929,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.23</v>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0426</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -4902,14 +4967,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.09</v>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0125</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -4918,14 +5005,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>36</v>
-      </c>
-      <c r="D5" t="n">
-        <v>14.37</v>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9042</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -4934,13 +5043,433 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5416</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009837</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5330</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2470</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1868</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1405</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009838</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>36</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14.37</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>19</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>13.81</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603883-老百姓.xlsx
+++ b/数据整理/stocks/A股/上证主板/603883-老百姓.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5352,7 +5353,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5363,17 +5364,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5383,14 +5404,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.23</v>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5299</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -5399,14 +5442,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.74</v>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2220</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -5415,14 +5480,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.23</v>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3561</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -5431,14 +5518,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.09</v>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2699</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -5447,14 +5556,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>36</v>
-      </c>
-      <c r="D6" t="n">
-        <v>14.37</v>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0348</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -5463,13 +5594,677 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>009837</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6464</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4422</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3250</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3022</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2151</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1464</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009838</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014649</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>永赢优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014650</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>永赢优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>36</v>
+      </c>
+      <c r="D7" t="n">
+        <v>14.37</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>19</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>13.81</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603883-老百姓.xlsx
+++ b/数据整理/stocks/A股/上证主板/603883-老百姓.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>10.63</v>
+        <v>15.19</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>6.23</v>
+        <v>10.63</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>11.74</v>
+        <v>6.23</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>6.23</v>
+        <v>11.74</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>9.09</v>
+        <v>6.23</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>14.37</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>36</v>
+      </c>
+      <c r="D8" t="n">
+        <v>14.37</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>19</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>13.81</v>
       </c>
     </row>
@@ -600,6 +617,1238 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6989</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6437</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4603</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1590</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1378</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0884</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9102</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012159</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通资管健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8860</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8855</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009837</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6337</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011868</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信建投远见回报混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6103</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4165</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2854</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2339</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1962</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008359</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1832</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012160</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通资管健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1728</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011869</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信建投远见回报混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1382</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1171</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011404</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>融通鑫新成长混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>870017</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发资管消费精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>74.82</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013483</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011403</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>融通鑫新成长混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009838</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011788</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银聚益混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>39.28</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>015889</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国中证500基本面精选股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>40.38</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>015890</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国中证500基本面精选股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>40.38</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011789</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银聚益混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>39.28</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1377,7 +2626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1889,7 +3138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2781,7 +4030,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3407,7 +4656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4071,7 +5320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5495,7 +6744,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603883-老百姓.xlsx
+++ b/数据整理/stocks/A股/上证主板/603883-老百姓.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D2" t="n">
-        <v>15.19</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D3" t="n">
-        <v>10.63</v>
+        <v>15.19</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>6.23</v>
+        <v>10.63</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>11.74</v>
+        <v>6.23</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>6.23</v>
+        <v>11.74</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>9.09</v>
+        <v>6.23</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
-        <v>14.37</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,808 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>36</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14.37</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>19</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>13.81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5537</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7294</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6066</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2522</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1309</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9978</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9964</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000336</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>农银研究精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>27.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9875</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6802</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005726</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6063</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005303</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5858</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>42.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3048</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>580001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东吴嘉禾优势精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2043</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005304</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011324</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1412,1810 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3117</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8345</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>49.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8323</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5272</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3341</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1389</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1269</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0184</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009542</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华富利精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>28.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9301</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009837</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>75.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6990</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161616</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>融通医疗保健行业混合A/B</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.46</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5668</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5504</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4987</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011868</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信建投远见回报混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4603</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012160</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通资管健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3373</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2938</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012159</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通资管健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2700</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2639</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008359</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.27</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2434</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2413</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1972</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>75.45</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1506</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015559</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长江启航混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.62</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011869</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中信建投远见回报混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012358</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>015052</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方红医疗升级股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>020034</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>49.57</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013483</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009275</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>融通医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005360</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇安资产轮动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009838</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>75.21</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013881</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>020033</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>49.57</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012359</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>013072</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>015053</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>东方红医疗升级股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013073</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>015560</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长江启航混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>83.62</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014044</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>银华富利精选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.54</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>017213</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇安资产轮动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1848,7 +4447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2626,7 +5225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3138,7 +5737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4030,7 +6629,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4656,7 +7255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5320,7 +7919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6742,782 +9341,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009805</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰医药健康股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>28.28</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.09</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.03</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.5537</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001645</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰大健康股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>19.28</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.97</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.7294</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>020001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰金鹰增长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>18.34</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.50</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.76</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.6066</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009804</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国泰研究优势混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>14.23</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.80</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.2522</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000727</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>融通健康产业灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>21.96</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.74</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.1309</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>160215</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国泰价值经典灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>11.39</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>8.76</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.9978</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008370</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国泰研究精选两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>11.99</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.10</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>8.31</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.9964</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>000336</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>农银研究精选混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>27.43</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>83.67</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.9875</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001128</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>宝盈新兴产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>14.23</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.55</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.6802</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005726</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国泰价值精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>8.48</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.10</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>7.15</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.6063</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005303</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>嘉实医药健康股票A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>17.97</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>89.28</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.5858</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009898</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>民生加银医药健康股票</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>7.64</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>42.92</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.3048</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>580001</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>东吴嘉禾优势精选混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>90.66</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.2043</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005304</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>嘉实医药健康股票C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>89.28</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0769</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001861</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>富安达健康人生灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>89.90</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5.47</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0503</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009274</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>融通健康产业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.74</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0273</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>011326</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>国泰医药健康股票C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.09</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>9.03</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0172</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>011321</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>国泰大健康股票C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>8.97</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0054</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>011324</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>国泰价值精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.10</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>7.15</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>